--- a/biology/Médecine/Étienne_Hubert_(médecin)/Étienne_Hubert_(médecin).xlsx
+++ b/biology/Médecine/Étienne_Hubert_(médecin)/Étienne_Hubert_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hubert_(m%C3%A9decin)</t>
+          <t>Étienne_Hubert_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Hubert (1567 ou 68-1614) est un médecin, savant orientaliste arabisant, professeur et diplomate français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Hubert_(m%C3%A9decin)</t>
+          <t>Étienne_Hubert_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Orléans, il fit des études de médecine dans cette ville et à Paris (bachelier le 21 avril 1596) et s'intéressa à l'arabe pour avoir accès aux textes médicaux écrits dans cette langue : le prestige d'Avicenne liait alors la médecine et l'étude de la langue arabe[réf. souhaitée].
 En 1598, Henri IV le missionna à Marrakech auprès du sultan Ahmed al-Mansour en remplacement d'Arnoult de Lisle, rappelé à Paris. De retour en France en 1600 (après un passage à Rome selon son épitaphe), il fut nommé professeur d'arabe au Collège royal. En 1602, il reçut également la charge de médecin ordinaire du roi (par quartier). Le 22 mai 1605, un brevet le dispensa de ce service afin qu'il pût, à compter de janvier 1606, se rendre en Espagne pour y rechercher des livres de médecine en langue arabe et « y discourir avec les Arabes qui estoient au royaume de Valence ». En septembre 1611, il s'offrit, avec Thomas van Erpe, comme intermédiaire pour l'ambassadeur marocain Ahmed ibn Qasim al-Hajari.
